--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,132 +43,162 @@
     <t>war</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>ridiculous</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>struggling</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>affected</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -178,58 +208,97 @@
     <t>free</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -238,76 +307,52 @@
     <t>please</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>funny</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>helping</t>
   </si>
   <si>
     <t>give</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -665,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -784,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -834,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K6">
         <v>0.9302325581395349</v>
@@ -934,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>0.9295039164490861</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8620689655172413</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,28 +1050,28 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L8">
+        <v>353</v>
+      </c>
+      <c r="M8">
+        <v>353</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>30</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,38 +1079,38 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L9">
         <v>33</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>33</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9">
-        <v>0.9084507042253521</v>
-      </c>
-      <c r="L9">
-        <v>129</v>
-      </c>
-      <c r="M9">
-        <v>129</v>
-      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -1076,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1084,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1102,31 +1147,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L10">
+        <v>54</v>
+      </c>
+      <c r="M10">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10">
-        <v>0.9056603773584906</v>
-      </c>
-      <c r="L10">
-        <v>96</v>
-      </c>
-      <c r="M10">
-        <v>96</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1134,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8260869565217391</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1152,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1176,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1184,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1202,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1226,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1234,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7777777777777778</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1252,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.890625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1276,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1284,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7647058823529411</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1302,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.88125</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L14">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1334,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7647058823529411</v>
+        <v>0.84</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1376,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1384,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7422480620155039</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C16">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1402,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8875</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1426,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1434,13 +1479,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7391304347826086</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1452,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1476,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1484,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7354497354497355</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C18">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1502,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1526,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1534,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7288135593220338</v>
+        <v>0.8</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1552,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1576,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1584,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.725</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1602,31 +1647,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="L20">
+        <v>52</v>
+      </c>
+      <c r="M20">
+        <v>52</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>11</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L20">
-        <v>38</v>
-      </c>
-      <c r="M20">
-        <v>38</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1634,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6944444444444444</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,16 +1700,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.825</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1676,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1684,13 +1729,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6774193548387096</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1702,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>0.7647058823529411</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1726,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1734,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6756756756756757</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1752,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>0.7491525423728813</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L23">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1776,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1784,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6644295302013423</v>
+        <v>0.775</v>
       </c>
       <c r="C24">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1802,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K24">
-        <v>0.7489539748953975</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L24">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1826,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1834,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6410256410256411</v>
+        <v>0.7616279069767442</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>393</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>393</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1852,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.7450980392156863</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1876,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1884,13 +1929,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6363636363636364</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1902,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>0.7384615384615385</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1926,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1934,7 +1979,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C27">
         <v>19</v>
@@ -1952,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>0.7307692307692307</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1976,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1984,13 +2029,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.625</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2002,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>0.723404255319149</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L28">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2026,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2034,13 +2079,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.625</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2052,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.7191011235955056</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L29">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2076,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2084,13 +2129,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6181818181818182</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2102,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>0.675</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2126,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2134,13 +2179,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6153846153846154</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2152,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K31">
-        <v>0.6571428571428571</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2176,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2184,13 +2229,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6086956521739131</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2202,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.6571428571428571</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2226,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2234,13 +2279,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5909090909090909</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2252,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.76</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2276,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2284,13 +2329,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5555555555555556</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2302,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>0.5909090909090909</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2326,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2334,13 +2379,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5466666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2352,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>0.5652173913043478</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2376,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2384,13 +2429,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5272727272727272</v>
+        <v>0.6644295302013423</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2402,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>0.5641025641025641</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="L36">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="M36">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2426,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2434,13 +2479,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5178571428571429</v>
+        <v>0.65</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2452,19 +2497,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.5555555555555556</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2476,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2484,13 +2529,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4838709677419355</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2502,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K38">
-        <v>0.5416666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2526,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2534,13 +2579,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4509803921568628</v>
+        <v>0.59375</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2552,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>0.5357142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2576,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2584,13 +2629,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4333333333333333</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2602,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K40">
-        <v>0.5238095238095238</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2626,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2634,13 +2679,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4193548387096774</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2652,19 +2697,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0.5151515151515151</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2676,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2684,13 +2729,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.375</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2702,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K42">
-        <v>0.4705882352941176</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2726,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2734,13 +2779,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3452380952380952</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C43">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2752,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K43">
-        <v>0.4666666666666667</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2776,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2784,13 +2829,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3375</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2802,19 +2847,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K44">
-        <v>0.4193548387096774</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2834,13 +2879,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1635388739946381</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C45">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2852,19 +2897,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K45">
-        <v>0.3859649122807017</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2876,85 +2921,459 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K46">
-        <v>0.359375</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>17</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47">
+        <v>0.5</v>
+      </c>
+      <c r="L47">
+        <v>32</v>
+      </c>
+      <c r="M47">
+        <v>32</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="C48">
         <v>23</v>
       </c>
-      <c r="M46">
+      <c r="D48">
         <v>23</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>28</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48">
+        <v>0.5</v>
+      </c>
+      <c r="L48">
+        <v>39</v>
+      </c>
+      <c r="M48">
+        <v>39</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.3896103896103896</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>47</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L49">
+        <v>27</v>
+      </c>
+      <c r="M49">
+        <v>27</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.375</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>25</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="L50">
+        <v>16</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.375</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>20</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.3690476190476191</v>
+      </c>
+      <c r="C52">
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <v>93</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>159</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52">
+        <v>0.1192660550458716</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>96</v>
       </c>
-      <c r="K47">
-        <v>0.3287671232876712</v>
-      </c>
-      <c r="L47">
-        <v>24</v>
-      </c>
-      <c r="M47">
-        <v>24</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K48">
-        <v>0.2131147540983606</v>
-      </c>
-      <c r="L48">
-        <v>13</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>48</v>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>57</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K53">
+        <v>0.0972972972972973</v>
+      </c>
+      <c r="L53">
+        <v>18</v>
+      </c>
+      <c r="M53">
+        <v>18</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.2064343163538874</v>
+      </c>
+      <c r="C54">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>77</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.007483629560336763</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <v>0.24</v>
+      </c>
+      <c r="F55">
+        <v>0.76</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2122</v>
       </c>
     </row>
   </sheetData>
